--- a/lin/help/27_COVID_19_regiz.xlsx
+++ b/lin/help/27_COVID_19_regiz.xlsx
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="132">
   <si>
     <t>Лаборатория</t>
   </si>
@@ -458,6 +458,12 @@
   </si>
   <si>
     <t>99ad51aa-1529-6492-c6f8-84c5777b3c00</t>
+  </si>
+  <si>
+    <t>СПб ГБУЗ "Городская больница Святого Великомученика Георгия"</t>
+  </si>
+  <si>
+    <t>ФГКУ «Поликлиника №4 Федеральной таможенной службы»</t>
   </si>
 </sst>
 </file>
@@ -1365,16 +1371,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1700,9 +1706,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="36" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="16" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="3" fontId="20" fillId="5" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1729,6 +1732,9 @@
     </xf>
     <xf numFmtId="3" fontId="21" fillId="11" borderId="33" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="5" borderId="48" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="11" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2433,10 +2439,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:K70"/>
+  <dimension ref="A1:K72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="C66" sqref="C66"/>
+    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2539,19 +2545,19 @@
       <c r="C4" s="125"/>
       <c r="D4" s="126"/>
       <c r="E4" s="78" t="e">
-        <f>E5+E50</f>
+        <f>E5+E52</f>
         <v>#N/A</v>
       </c>
       <c r="F4" s="79" t="e">
-        <f>F5+F50</f>
+        <f>F5+F52</f>
         <v>#N/A</v>
       </c>
       <c r="G4" s="79">
-        <f>G5+G50</f>
+        <f>G5+G52</f>
         <v>0</v>
       </c>
       <c r="H4" s="80">
-        <f>H5+H50</f>
+        <f>H5+H52</f>
         <v>0</v>
       </c>
       <c r="I4" s="80"/>
@@ -2566,19 +2572,19 @@
       <c r="C5" s="128"/>
       <c r="D5" s="129"/>
       <c r="E5" s="72" t="e">
-        <f>E6+E9+E36</f>
+        <f>E6+E9+E37</f>
         <v>#N/A</v>
       </c>
       <c r="F5" s="38" t="e">
-        <f>F6+F9+F36</f>
+        <f>F6+F9+F37</f>
         <v>#N/A</v>
       </c>
       <c r="G5" s="38">
-        <f>G6+G9+G36</f>
+        <f>G6+G9+G37</f>
         <v>0</v>
       </c>
       <c r="H5" s="39">
-        <f>H6+H9+H36</f>
+        <f>H6+H9+H37</f>
         <v>0</v>
       </c>
       <c r="I5" s="39"/>
@@ -2593,11 +2599,11 @@
       <c r="C6" s="131"/>
       <c r="D6" s="132"/>
       <c r="E6" s="74" t="e">
-        <f t="shared" ref="E6:F6" si="0">SUM(E7:E8)</f>
+        <f>SUM(E7:E8)</f>
         <v>#N/A</v>
       </c>
       <c r="F6" s="40" t="e">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="F6" si="0">SUM(F7:F8)</f>
         <v>#N/A</v>
       </c>
       <c r="G6" s="40">
@@ -2617,7 +2623,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="42" t="e">
-        <f>VLOOKUP($D7,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D7,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C7" s="42" t="e">
@@ -2661,7 +2667,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="103" t="e">
-        <f>VLOOKUP($D8,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D8,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C8" s="103" t="e">
@@ -2688,11 +2694,11 @@
         <v/>
       </c>
       <c r="I8" s="51" t="e">
-        <f t="shared" ref="I8:I70" si="1">IFERROR($E8-$G8,IF(ISBLANK($E8),$G8,$E8))</f>
+        <f t="shared" ref="I8:I72" si="1">IFERROR($E8-$G8,IF(ISBLANK($E8),$G8,$E8))</f>
         <v>#N/A</v>
       </c>
       <c r="J8" s="52" t="e">
-        <f t="shared" ref="J8:J70" si="2">IFERROR($F8-$H8,IF(ISBLANK($F8),$H8,$F8))</f>
+        <f t="shared" ref="J8:J72" si="2">IFERROR($F8-$H8,IF(ISBLANK($F8),$H8,$F8))</f>
         <v>#N/A</v>
       </c>
       <c r="K8" s="52" t="e">
@@ -2708,19 +2714,19 @@
         <v>70</v>
       </c>
       <c r="E9" s="40" t="e">
-        <f>SUM(E10:E35)</f>
+        <f>SUM(E10:E36)</f>
         <v>#N/A</v>
       </c>
       <c r="F9" s="40" t="e">
-        <f>SUM(F10:F35)</f>
+        <f>SUM(F10:F36)</f>
         <v>#N/A</v>
       </c>
       <c r="G9" s="53">
-        <f>SUM(G10:G35)</f>
+        <f>SUM(G10:G36)</f>
         <v>0</v>
       </c>
       <c r="H9" s="53">
-        <f>SUM(H10:H35)</f>
+        <f>SUM(H10:H36)</f>
         <v>0</v>
       </c>
       <c r="I9" s="54"/>
@@ -2732,7 +2738,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="42" t="e">
-        <f>VLOOKUP($D10,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D10,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C10" s="42" t="e">
@@ -2776,7 +2782,7 @@
         <v>4</v>
       </c>
       <c r="B11" s="102" t="e">
-        <f>VLOOKUP($D11,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D11,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C11" s="102" t="e">
@@ -2820,7 +2826,7 @@
         <v>5</v>
       </c>
       <c r="B12" s="102" t="e">
-        <f>VLOOKUP($D12,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D12,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C12" s="102" t="e">
@@ -2864,7 +2870,7 @@
         <v>6</v>
       </c>
       <c r="B13" s="102" t="e">
-        <f>VLOOKUP($D13,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D13,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C13" s="102" t="e">
@@ -2908,7 +2914,7 @@
         <v>7</v>
       </c>
       <c r="B14" s="102" t="e">
-        <f>VLOOKUP($D14,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D14,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C14" s="102" t="e">
@@ -2952,7 +2958,7 @@
         <v>8</v>
       </c>
       <c r="B15" s="102" t="e">
-        <f>VLOOKUP($D15,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D15,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C15" s="102" t="e">
@@ -2996,7 +3002,7 @@
         <v>9</v>
       </c>
       <c r="B16" s="102" t="e">
-        <f>VLOOKUP($D16,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D16,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C16" s="102" t="e">
@@ -3040,7 +3046,7 @@
         <v>10</v>
       </c>
       <c r="B17" s="102" t="e">
-        <f>VLOOKUP($D17,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D17,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C17" s="102" t="e">
@@ -3084,7 +3090,7 @@
         <v>11</v>
       </c>
       <c r="B18" s="102" t="e">
-        <f>VLOOKUP($D18,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D18,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C18" s="102" t="e">
@@ -3128,7 +3134,7 @@
         <v>12</v>
       </c>
       <c r="B19" s="102" t="e">
-        <f>VLOOKUP($D19,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D19,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C19" s="102" t="e">
@@ -3172,7 +3178,7 @@
         <v>13</v>
       </c>
       <c r="B20" s="102" t="e">
-        <f>VLOOKUP($D20,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D20,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C20" s="102" t="e">
@@ -3216,7 +3222,7 @@
         <v>14</v>
       </c>
       <c r="B21" s="102" t="e">
-        <f>VLOOKUP($D21,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D21,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C21" s="102" t="e">
@@ -3260,7 +3266,7 @@
         <v>15</v>
       </c>
       <c r="B22" s="102" t="e">
-        <f>VLOOKUP($D22,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D22,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C22" s="102" t="e">
@@ -3304,7 +3310,7 @@
         <v>16</v>
       </c>
       <c r="B23" s="102" t="e">
-        <f>VLOOKUP($D23,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D23,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C23" s="102" t="e">
@@ -3348,7 +3354,7 @@
         <v>17</v>
       </c>
       <c r="B24" s="102" t="e">
-        <f>VLOOKUP($D24,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D24,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C24" s="102" t="e">
@@ -3392,7 +3398,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="102" t="e">
-        <f>VLOOKUP($D25,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D25,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C25" s="102" t="e">
@@ -3436,7 +3442,7 @@
         <v>19</v>
       </c>
       <c r="B26" s="102" t="e">
-        <f>VLOOKUP($D26,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D26,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C26" s="102" t="e">
@@ -3480,7 +3486,7 @@
         <v>20</v>
       </c>
       <c r="B27" s="102" t="e">
-        <f>VLOOKUP($D27,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D27,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C27" s="102" t="e">
@@ -3524,7 +3530,7 @@
         <v>21</v>
       </c>
       <c r="B28" s="102" t="e">
-        <f>VLOOKUP($D28,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D28,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C28" s="102" t="e">
@@ -3568,7 +3574,7 @@
         <v>22</v>
       </c>
       <c r="B29" s="102" t="e">
-        <f>VLOOKUP($D29,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D29,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C29" s="102" t="e">
@@ -3612,7 +3618,7 @@
         <v>23</v>
       </c>
       <c r="B30" s="102" t="e">
-        <f>VLOOKUP($D30,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D30,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C30" s="102" t="e">
@@ -3656,7 +3662,7 @@
         <v>24</v>
       </c>
       <c r="B31" s="102" t="e">
-        <f>VLOOKUP($D31,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D31,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C31" s="102" t="e">
@@ -3700,7 +3706,7 @@
         <v>25</v>
       </c>
       <c r="B32" s="102" t="e">
-        <f>VLOOKUP($D32,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D32,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C32" s="102" t="e">
@@ -3744,7 +3750,7 @@
         <v>26</v>
       </c>
       <c r="B33" s="102" t="e">
-        <f>VLOOKUP($D33,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D33,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C33" s="102" t="e">
@@ -3788,7 +3794,7 @@
         <v>27</v>
       </c>
       <c r="B34" s="102" t="e">
-        <f>VLOOKUP($D34,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D34,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C34" s="102" t="e">
@@ -3827,171 +3833,171 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:11" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="64">
+    <row r="35" spans="1:11" ht="102.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="56">
         <v>28</v>
       </c>
-      <c r="B35" s="103" t="e">
-        <f>VLOOKUP($D35,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C35" s="103" t="e">
+      <c r="B35" s="102" t="e">
+        <f>VLOOKUP($D35,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C35" s="102" t="e">
         <f>VLOOKUP($B35,nsi!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D35" s="65" t="s">
+      <c r="D35" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="E35" s="101" t="e">
+      <c r="E35" s="100" t="e">
         <f>VLOOKUP($D35,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F35" s="48" t="e">
+      <c r="F35" s="58" t="e">
         <f>VLOOKUP($D35,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G35" s="49" t="str">
+      <c r="G35" s="59" t="str">
         <f>IFERROR(VLOOKUP($C35,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H35" s="50" t="str">
+      <c r="H35" s="58" t="str">
         <f>IFERROR(VLOOKUP($C35,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I35" s="51" t="e">
+      <c r="I35" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J35" s="52" t="e">
+      <c r="J35" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K35" s="52" t="e">
+      <c r="K35" s="61" t="e">
         <f t="shared" si="3"/>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="105"/>
-      <c r="B36" s="106"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="109" t="s">
+    <row r="36" spans="1:11" ht="102.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64">
+        <v>29</v>
+      </c>
+      <c r="B36" s="103" t="e">
+        <f>VLOOKUP($D36,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C36" s="103" t="e">
+        <f>VLOOKUP($B36,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D36" s="65" t="s">
+        <v>130</v>
+      </c>
+      <c r="E36" s="100" t="e">
+        <f>VLOOKUP($D36,parus!$A$3:$AA$100,21,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F36" s="58" t="e">
+        <f>VLOOKUP($D36,parus!$A$3:$AA$100,23,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G36" s="59" t="str">
+        <f>IFERROR(VLOOKUP($C36,regiz!$B:$J,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H36" s="58" t="str">
+        <f>IFERROR(VLOOKUP($C36,regiz!$B:$J,5,0),"")</f>
+        <v/>
+      </c>
+      <c r="I36" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J36" s="61" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K36" s="61" t="e">
+        <f t="shared" ref="K36" si="4">IF(C36=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="105"/>
+      <c r="B37" s="106"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="109" t="s">
         <v>97</v>
       </c>
-      <c r="E36" s="40" t="e">
-        <f>SUM(E37:E49)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F36" s="40" t="e">
-        <f>SUM(F37:F49)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G36" s="53">
-        <f>SUM(G37:G49)</f>
+      <c r="E37" s="40" t="e">
+        <f>SUM(E38:E51)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F37" s="40" t="e">
+        <f>SUM(F38:F51)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G37" s="53">
+        <f>SUM(G38:G51)</f>
         <v>0</v>
       </c>
-      <c r="H36" s="53">
-        <f>SUM(H37:H49)</f>
+      <c r="H37" s="53">
+        <f>SUM(H38:H51)</f>
         <v>0</v>
       </c>
-      <c r="I36" s="62"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-    </row>
-    <row r="37" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="41">
-        <v>29</v>
-      </c>
-      <c r="B37" s="42" t="e">
-        <f>VLOOKUP($D37,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C37" s="42" t="e">
-        <f>VLOOKUP($B37,nsi!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D37" s="43" t="s">
+      <c r="I37" s="62"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+    </row>
+    <row r="38" spans="1:11" ht="63.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="41">
+        <v>30</v>
+      </c>
+      <c r="B38" s="42" t="e">
+        <f>VLOOKUP($D38,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C38" s="42" t="e">
+        <f>VLOOKUP($B38,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D38" s="43" t="s">
         <v>98</v>
       </c>
-      <c r="E37" s="104" t="e">
-        <f>VLOOKUP($D37,parus!$A$3:$AA$100,21,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F37" s="55" t="e">
-        <f>VLOOKUP($D37,parus!$A$3:$AA$100,23,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G37" s="45" t="str">
-        <f>IFERROR(VLOOKUP($C37,regiz!$B:$J,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="H37" s="44" t="str">
-        <f>IFERROR(VLOOKUP($C37,regiz!$B:$J,5,0),"")</f>
-        <v/>
-      </c>
-      <c r="I37" s="46" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J37" s="47" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K37" s="47" t="e">
-        <f>IF(C37=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="56">
-        <v>30</v>
-      </c>
-      <c r="B38" s="102" t="e">
-        <f>VLOOKUP($D38,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C38" s="102" t="e">
-        <f>VLOOKUP($B38,nsi!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D38" s="57" t="s">
-        <v>99</v>
-      </c>
-      <c r="E38" s="100" t="e">
+      <c r="E38" s="104" t="e">
         <f>VLOOKUP($D38,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F38" s="58" t="e">
+      <c r="F38" s="55" t="e">
         <f>VLOOKUP($D38,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G38" s="59" t="str">
+      <c r="G38" s="45" t="str">
         <f>IFERROR(VLOOKUP($C38,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H38" s="58" t="str">
+      <c r="H38" s="44" t="str">
         <f>IFERROR(VLOOKUP($C38,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I38" s="60" t="e">
+      <c r="I38" s="46" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J38" s="61" t="e">
+      <c r="J38" s="47" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K38" s="61" t="e">
+      <c r="K38" s="47" t="e">
         <f>IF(C38=0, "нет в РЕГИЗе","есть")</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="56">
         <v>31</v>
       </c>
       <c r="B39" s="102" t="e">
-        <f>VLOOKUP($D39,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D39,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C39" s="102" t="e">
@@ -3999,7 +4005,7 @@
         <v>#N/A</v>
       </c>
       <c r="D39" s="57" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E39" s="100" t="e">
         <f>VLOOKUP($D39,parus!$A$3:$AA$100,21,0)</f>
@@ -4030,12 +4036,12 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:11" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="56">
         <v>32</v>
       </c>
       <c r="B40" s="102" t="e">
-        <f>VLOOKUP($D40,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D40,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C40" s="102" t="e">
@@ -4043,7 +4049,7 @@
         <v>#N/A</v>
       </c>
       <c r="D40" s="57" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E40" s="100" t="e">
         <f>VLOOKUP($D40,parus!$A$3:$AA$100,21,0)</f>
@@ -4070,16 +4076,16 @@
         <v>#N/A</v>
       </c>
       <c r="K40" s="61" t="e">
-        <f t="shared" ref="K40:K48" si="4">IF(C40=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="41" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(C40=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" ht="59.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="56">
         <v>33</v>
       </c>
       <c r="B41" s="102" t="e">
-        <f>VLOOKUP($D41,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D41,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C41" s="102" t="e">
@@ -4087,7 +4093,7 @@
         <v>#N/A</v>
       </c>
       <c r="D41" s="57" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E41" s="100" t="e">
         <f>VLOOKUP($D41,parus!$A$3:$AA$100,21,0)</f>
@@ -4105,25 +4111,25 @@
         <f>IFERROR(VLOOKUP($C41,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I41" s="97" t="e">
-        <f>IFERROR($E41-$G41,IF(ISBLANK($E41),$G41,$E41))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J41" s="98" t="e">
-        <f>IFERROR($F41-$H41,IF(ISBLANK($F41),$H41,$F41))</f>
+      <c r="I41" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J41" s="61" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K41" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="42" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K41:K50" si="5">IF(C41=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="56">
         <v>34</v>
       </c>
       <c r="B42" s="102" t="e">
-        <f>VLOOKUP($D42,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D42,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C42" s="102" t="e">
@@ -4131,7 +4137,7 @@
         <v>#N/A</v>
       </c>
       <c r="D42" s="57" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E42" s="100" t="e">
         <f>VLOOKUP($D42,parus!$A$3:$AA$100,21,0)</f>
@@ -4149,25 +4155,25 @@
         <f>IFERROR(VLOOKUP($C42,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I42" s="60" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J42" s="61" t="e">
-        <f t="shared" si="2"/>
+      <c r="I42" s="97" t="e">
+        <f>IFERROR($E42-$G42,IF(ISBLANK($E42),$G42,$E42))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J42" s="98" t="e">
+        <f>IFERROR($F42-$H42,IF(ISBLANK($F42),$H42,$F42))</f>
         <v>#N/A</v>
       </c>
       <c r="K42" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="43" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="56">
         <v>35</v>
       </c>
       <c r="B43" s="102" t="e">
-        <f>VLOOKUP($D43,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D43,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C43" s="102" t="e">
@@ -4175,7 +4181,7 @@
         <v>#N/A</v>
       </c>
       <c r="D43" s="57" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E43" s="100" t="e">
         <f>VLOOKUP($D43,parus!$A$3:$AA$100,21,0)</f>
@@ -4193,25 +4199,25 @@
         <f>IFERROR(VLOOKUP($C43,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I43" s="97" t="e">
-        <f>IFERROR($E43-$G43,IF(ISBLANK($E43),$G43,$E43))</f>
-        <v>#N/A</v>
-      </c>
-      <c r="J43" s="98" t="e">
-        <f>IFERROR($F43-$H43,IF(ISBLANK($F43),$H43,$F43))</f>
+      <c r="I43" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J43" s="61" t="e">
+        <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K43" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="44" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="56">
         <v>36</v>
       </c>
       <c r="B44" s="102" t="e">
-        <f>VLOOKUP($D44,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D44,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C44" s="102" t="e">
@@ -4219,7 +4225,7 @@
         <v>#N/A</v>
       </c>
       <c r="D44" s="57" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E44" s="100" t="e">
         <f>VLOOKUP($D44,parus!$A$3:$AA$100,21,0)</f>
@@ -4237,25 +4243,25 @@
         <f>IFERROR(VLOOKUP($C44,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I44" s="60" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J44" s="61" t="e">
-        <f t="shared" si="2"/>
+      <c r="I44" s="97" t="e">
+        <f>IFERROR($E44-$G44,IF(ISBLANK($E44),$G44,$E44))</f>
+        <v>#N/A</v>
+      </c>
+      <c r="J44" s="98" t="e">
+        <f>IFERROR($F44-$H44,IF(ISBLANK($F44),$H44,$F44))</f>
         <v>#N/A</v>
       </c>
       <c r="K44" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="45" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="56">
         <v>37</v>
       </c>
       <c r="B45" s="102" t="e">
-        <f>VLOOKUP($D45,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D45,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C45" s="102" t="e">
@@ -4263,7 +4269,7 @@
         <v>#N/A</v>
       </c>
       <c r="D45" s="57" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E45" s="100" t="e">
         <f>VLOOKUP($D45,parus!$A$3:$AA$100,21,0)</f>
@@ -4290,16 +4296,16 @@
         <v>#N/A</v>
       </c>
       <c r="K45" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="56">
         <v>38</v>
       </c>
       <c r="B46" s="102" t="e">
-        <f>VLOOKUP($D46,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D46,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C46" s="102" t="e">
@@ -4307,7 +4313,7 @@
         <v>#N/A</v>
       </c>
       <c r="D46" s="57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" s="100" t="e">
         <f>VLOOKUP($D46,parus!$A$3:$AA$100,21,0)</f>
@@ -4334,16 +4340,16 @@
         <v>#N/A</v>
       </c>
       <c r="K46" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:11" ht="69.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" ht="58.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="56">
         <v>39</v>
       </c>
       <c r="B47" s="102" t="e">
-        <f>VLOOKUP($D47,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D47,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C47" s="102" t="e">
@@ -4351,7 +4357,7 @@
         <v>#N/A</v>
       </c>
       <c r="D47" s="57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E47" s="100" t="e">
         <f>VLOOKUP($D47,parus!$A$3:$AA$100,21,0)</f>
@@ -4378,16 +4384,16 @@
         <v>#N/A</v>
       </c>
       <c r="K47" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" ht="69.75" x14ac:dyDescent="0.25">
       <c r="A48" s="56">
         <v>40</v>
       </c>
       <c r="B48" s="102" t="e">
-        <f>VLOOKUP($D48,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D48,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C48" s="102" t="e">
@@ -4395,7 +4401,7 @@
         <v>#N/A</v>
       </c>
       <c r="D48" s="57" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="E48" s="100" t="e">
         <f>VLOOKUP($D48,parus!$A$3:$AA$100,21,0)</f>
@@ -4422,219 +4428,219 @@
         <v>#N/A</v>
       </c>
       <c r="K48" s="61" t="e">
-        <f t="shared" si="4"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="49" spans="1:11" ht="163.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="64">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" ht="46.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="56">
         <v>41</v>
       </c>
-      <c r="B49" s="103" t="e">
-        <f>VLOOKUP($D49,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C49" s="103" t="e">
+      <c r="B49" s="102" t="e">
+        <f>VLOOKUP($D49,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C49" s="102" t="e">
         <f>VLOOKUP($B49,nsi!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D49" s="65" t="s">
-        <v>125</v>
-      </c>
-      <c r="E49" s="101" t="e">
+      <c r="D49" s="57" t="s">
+        <v>124</v>
+      </c>
+      <c r="E49" s="100" t="e">
         <f>VLOOKUP($D49,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F49" s="48" t="e">
+      <c r="F49" s="58" t="e">
         <f>VLOOKUP($D49,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G49" s="49" t="str">
+      <c r="G49" s="59" t="str">
         <f>IFERROR(VLOOKUP($C49,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H49" s="50" t="str">
+      <c r="H49" s="58" t="str">
         <f>IFERROR(VLOOKUP($C49,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I49" s="51" t="e">
+      <c r="I49" s="60" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J49" s="52" t="e">
+      <c r="J49" s="61" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K49" s="52" t="e">
-        <f t="shared" ref="K49" si="5">IF(C49=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="50" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="105"/>
-      <c r="B50" s="106"/>
-      <c r="C50" s="107"/>
-      <c r="D50" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="E50" s="111" t="e">
-        <f>SUM(E51:E70)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F50" s="111" t="e">
-        <f>SUM(F51:F70)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G50" s="63">
-        <f>SUM(G51:G70)</f>
-        <v>0</v>
-      </c>
-      <c r="H50" s="63">
-        <f>SUM(H51:H70)</f>
-        <v>0</v>
-      </c>
-      <c r="I50" s="62"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-    </row>
-    <row r="51" spans="1:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="41">
+      <c r="K49" s="61" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" ht="162.75" x14ac:dyDescent="0.25">
+      <c r="A50" s="56">
         <v>42</v>
       </c>
-      <c r="B51" s="42" t="e">
-        <f>VLOOKUP($D51,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C51" s="42" t="e">
+      <c r="B50" s="102" t="e">
+        <f>VLOOKUP($D50,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C50" s="102" t="e">
+        <f>VLOOKUP($B50,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D50" s="57" t="s">
+        <v>125</v>
+      </c>
+      <c r="E50" s="100" t="e">
+        <f>VLOOKUP($D50,parus!$A$3:$AA$100,21,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F50" s="58" t="e">
+        <f>VLOOKUP($D50,parus!$A$3:$AA$100,23,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G50" s="59" t="str">
+        <f>IFERROR(VLOOKUP($C50,regiz!$B:$J,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H50" s="58" t="str">
+        <f>IFERROR(VLOOKUP($C50,regiz!$B:$J,5,0),"")</f>
+        <v/>
+      </c>
+      <c r="I50" s="60" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J50" s="61" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K50" s="61" t="e">
+        <f t="shared" si="5"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" ht="70.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="64">
+        <v>43</v>
+      </c>
+      <c r="B51" s="103" t="e">
+        <f>VLOOKUP($D51,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C51" s="103" t="e">
         <f>VLOOKUP($B51,nsi!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D51" s="42" t="s">
-        <v>110</v>
-      </c>
-      <c r="E51" s="115" t="e">
+      <c r="D51" s="65" t="s">
+        <v>131</v>
+      </c>
+      <c r="E51" s="120" t="e">
         <f>VLOOKUP($D51,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F51" s="116" t="e">
+      <c r="F51" s="50" t="e">
         <f>VLOOKUP($D51,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G51" s="115" t="str">
+      <c r="G51" s="49" t="str">
         <f>IFERROR(VLOOKUP($C51,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H51" s="116" t="str">
+      <c r="H51" s="50" t="str">
         <f>IFERROR(VLOOKUP($C51,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I51" s="117" t="e">
+      <c r="I51" s="51" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J51" s="117" t="e">
+      <c r="J51" s="52" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K51" s="47" t="e">
-        <f>IF(C51=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="56">
-        <v>43</v>
-      </c>
-      <c r="B52" s="102" t="e">
-        <f>VLOOKUP($D52,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C52" s="102" t="e">
-        <f>VLOOKUP($B52,nsi!$F:$G,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="D52" s="102" t="s">
-        <v>111</v>
-      </c>
-      <c r="E52" s="112" t="e">
-        <f>VLOOKUP($D52,parus!$A$3:$AA$100,21,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="F52" s="113" t="e">
-        <f>VLOOKUP($D52,parus!$A$3:$AA$100,23,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="G52" s="112" t="str">
-        <f>IFERROR(VLOOKUP($C52,regiz!$B:$J,4,0),"")</f>
-        <v/>
-      </c>
-      <c r="H52" s="113" t="str">
-        <f>IFERROR(VLOOKUP($C52,regiz!$B:$J,5,0),"")</f>
-        <v/>
-      </c>
-      <c r="I52" s="114" t="e">
-        <f t="shared" si="1"/>
-        <v>#N/A</v>
-      </c>
-      <c r="J52" s="114" t="e">
-        <f t="shared" si="2"/>
-        <v>#N/A</v>
-      </c>
-      <c r="K52" s="61" t="e">
-        <f>IF(C52=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="53" spans="1:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="56">
+      <c r="K51" s="52" t="e">
+        <f t="shared" ref="K51" si="6">IF(C51=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="105"/>
+      <c r="B52" s="106"/>
+      <c r="C52" s="107"/>
+      <c r="D52" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="E52" s="63" t="e">
+        <f>SUM(E53:E72)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F52" s="63" t="e">
+        <f>SUM(F53:F72)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G52" s="63">
+        <f>SUM(G53:G72)</f>
+        <v>0</v>
+      </c>
+      <c r="H52" s="63">
+        <f>SUM(H53:H72)</f>
+        <v>0</v>
+      </c>
+      <c r="I52" s="62"/>
+      <c r="J52" s="62"/>
+      <c r="K52" s="62"/>
+    </row>
+    <row r="53" spans="1:11" ht="47.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="41">
         <v>44</v>
       </c>
-      <c r="B53" s="102" t="e">
-        <f>VLOOKUP($D53,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C53" s="102" t="e">
+      <c r="B53" s="42" t="e">
+        <f>VLOOKUP($D53,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C53" s="42" t="e">
         <f>VLOOKUP($B53,nsi!$F:$G,2,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="D53" s="102" t="s">
-        <v>112</v>
-      </c>
-      <c r="E53" s="112" t="e">
+      <c r="D53" s="42" t="s">
+        <v>110</v>
+      </c>
+      <c r="E53" s="114" t="e">
         <f>VLOOKUP($D53,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F53" s="113" t="e">
+      <c r="F53" s="115" t="e">
         <f>VLOOKUP($D53,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G53" s="112" t="str">
+      <c r="G53" s="114" t="str">
         <f>IFERROR(VLOOKUP($C53,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H53" s="113" t="str">
+      <c r="H53" s="115" t="str">
         <f>IFERROR(VLOOKUP($C53,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I53" s="114" t="e">
+      <c r="I53" s="116" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J53" s="114" t="e">
+      <c r="J53" s="116" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K53" s="61" t="e">
+      <c r="K53" s="47" t="e">
         <f>IF(C53=0, "нет в РЕГИЗе","есть")</f>
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="56">
         <v>45</v>
       </c>
       <c r="B54" s="102" t="e">
-        <f>VLOOKUP($D54,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D54,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C54" s="102" t="e">
@@ -4642,43 +4648,43 @@
         <v>#N/A</v>
       </c>
       <c r="D54" s="102" t="s">
-        <v>113</v>
-      </c>
-      <c r="E54" s="112" t="e">
+        <v>111</v>
+      </c>
+      <c r="E54" s="111" t="e">
         <f>VLOOKUP($D54,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F54" s="113" t="e">
+      <c r="F54" s="112" t="e">
         <f>VLOOKUP($D54,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G54" s="112" t="str">
+      <c r="G54" s="111" t="str">
         <f>IFERROR(VLOOKUP($C54,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H54" s="113" t="str">
+      <c r="H54" s="112" t="str">
         <f>IFERROR(VLOOKUP($C54,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I54" s="114" t="e">
+      <c r="I54" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J54" s="114" t="e">
+      <c r="J54" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K54" s="61" t="e">
-        <f t="shared" ref="K54:K66" si="6">IF(C54=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="55" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(C54=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" ht="46.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="56">
         <v>46</v>
       </c>
       <c r="B55" s="102" t="e">
-        <f>VLOOKUP($D55,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D55,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C55" s="102" t="e">
@@ -4686,43 +4692,43 @@
         <v>#N/A</v>
       </c>
       <c r="D55" s="102" t="s">
-        <v>114</v>
-      </c>
-      <c r="E55" s="112" t="e">
+        <v>112</v>
+      </c>
+      <c r="E55" s="111" t="e">
         <f>VLOOKUP($D55,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F55" s="113" t="e">
+      <c r="F55" s="112" t="e">
         <f>VLOOKUP($D55,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G55" s="112" t="str">
+      <c r="G55" s="111" t="str">
         <f>IFERROR(VLOOKUP($C55,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H55" s="113" t="str">
+      <c r="H55" s="112" t="str">
         <f>IFERROR(VLOOKUP($C55,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I55" s="114" t="e">
+      <c r="I55" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J55" s="114" t="e">
+      <c r="J55" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K55" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="56" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <f>IF(C55=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="56">
         <v>47</v>
       </c>
       <c r="B56" s="102" t="e">
-        <f>VLOOKUP($D56,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D56,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C56" s="102" t="e">
@@ -4730,43 +4736,43 @@
         <v>#N/A</v>
       </c>
       <c r="D56" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="E56" s="112" t="e">
+        <v>113</v>
+      </c>
+      <c r="E56" s="111" t="e">
         <f>VLOOKUP($D56,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F56" s="113" t="e">
+      <c r="F56" s="112" t="e">
         <f>VLOOKUP($D56,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G56" s="112" t="str">
+      <c r="G56" s="111" t="str">
         <f>IFERROR(VLOOKUP($C56,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H56" s="113" t="str">
+      <c r="H56" s="112" t="str">
         <f>IFERROR(VLOOKUP($C56,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I56" s="114" t="e">
+      <c r="I56" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J56" s="114" t="e">
+      <c r="J56" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K56" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="57" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" ref="K56:K68" si="7">IF(C56=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="56">
         <v>48</v>
       </c>
       <c r="B57" s="102" t="e">
-        <f>VLOOKUP($D57,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D57,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C57" s="102" t="e">
@@ -4774,43 +4780,43 @@
         <v>#N/A</v>
       </c>
       <c r="D57" s="102" t="s">
-        <v>51</v>
-      </c>
-      <c r="E57" s="112" t="e">
+        <v>114</v>
+      </c>
+      <c r="E57" s="111" t="e">
         <f>VLOOKUP($D57,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F57" s="113" t="e">
+      <c r="F57" s="112" t="e">
         <f>VLOOKUP($D57,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G57" s="112" t="str">
+      <c r="G57" s="111" t="str">
         <f>IFERROR(VLOOKUP($C57,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H57" s="113" t="str">
+      <c r="H57" s="112" t="str">
         <f>IFERROR(VLOOKUP($C57,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I57" s="114" t="e">
+      <c r="I57" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J57" s="114" t="e">
+      <c r="J57" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K57" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="58" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="56">
         <v>49</v>
       </c>
       <c r="B58" s="102" t="e">
-        <f>VLOOKUP($D58,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D58,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C58" s="102" t="e">
@@ -4818,43 +4824,43 @@
         <v>#N/A</v>
       </c>
       <c r="D58" s="102" t="s">
-        <v>115</v>
-      </c>
-      <c r="E58" s="112" t="e">
+        <v>52</v>
+      </c>
+      <c r="E58" s="111" t="e">
         <f>VLOOKUP($D58,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F58" s="113" t="e">
+      <c r="F58" s="112" t="e">
         <f>VLOOKUP($D58,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G58" s="112" t="str">
+      <c r="G58" s="111" t="str">
         <f>IFERROR(VLOOKUP($C58,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H58" s="113" t="str">
+      <c r="H58" s="112" t="str">
         <f>IFERROR(VLOOKUP($C58,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I58" s="114" t="e">
+      <c r="I58" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J58" s="114" t="e">
+      <c r="J58" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K58" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="59" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" ht="41.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="56">
         <v>50</v>
       </c>
       <c r="B59" s="102" t="e">
-        <f>VLOOKUP($D59,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D59,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C59" s="102" t="e">
@@ -4862,43 +4868,43 @@
         <v>#N/A</v>
       </c>
       <c r="D59" s="102" t="s">
-        <v>116</v>
-      </c>
-      <c r="E59" s="112" t="e">
+        <v>51</v>
+      </c>
+      <c r="E59" s="111" t="e">
         <f>VLOOKUP($D59,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F59" s="113" t="e">
+      <c r="F59" s="112" t="e">
         <f>VLOOKUP($D59,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G59" s="112" t="str">
+      <c r="G59" s="111" t="str">
         <f>IFERROR(VLOOKUP($C59,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H59" s="113" t="str">
+      <c r="H59" s="112" t="str">
         <f>IFERROR(VLOOKUP($C59,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I59" s="114" t="e">
+      <c r="I59" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J59" s="114" t="e">
+      <c r="J59" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K59" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="60" spans="1:11" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" ht="48.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="56">
         <v>51</v>
       </c>
       <c r="B60" s="102" t="e">
-        <f>VLOOKUP($D60,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D60,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C60" s="102" t="e">
@@ -4906,43 +4912,43 @@
         <v>#N/A</v>
       </c>
       <c r="D60" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="E60" s="112" t="e">
+        <v>115</v>
+      </c>
+      <c r="E60" s="111" t="e">
         <f>VLOOKUP($D60,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F60" s="113" t="e">
+      <c r="F60" s="112" t="e">
         <f>VLOOKUP($D60,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G60" s="112" t="str">
+      <c r="G60" s="111" t="str">
         <f>IFERROR(VLOOKUP($C60,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H60" s="113" t="str">
+      <c r="H60" s="112" t="str">
         <f>IFERROR(VLOOKUP($C60,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I60" s="114" t="e">
+      <c r="I60" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J60" s="114" t="e">
+      <c r="J60" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K60" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="61" spans="1:11" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" ht="40.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="56">
         <v>52</v>
       </c>
       <c r="B61" s="102" t="e">
-        <f>VLOOKUP($D61,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D61,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C61" s="102" t="e">
@@ -4950,34 +4956,34 @@
         <v>#N/A</v>
       </c>
       <c r="D61" s="102" t="s">
-        <v>117</v>
-      </c>
-      <c r="E61" s="112" t="e">
+        <v>116</v>
+      </c>
+      <c r="E61" s="111" t="e">
         <f>VLOOKUP($D61,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F61" s="113" t="e">
+      <c r="F61" s="112" t="e">
         <f>VLOOKUP($D61,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G61" s="112" t="str">
+      <c r="G61" s="111" t="str">
         <f>IFERROR(VLOOKUP($C61,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H61" s="113" t="str">
+      <c r="H61" s="112" t="str">
         <f>IFERROR(VLOOKUP($C61,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I61" s="114" t="e">
+      <c r="I61" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J61" s="114" t="e">
+      <c r="J61" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K61" s="61" t="e">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -4986,7 +4992,7 @@
         <v>53</v>
       </c>
       <c r="B62" s="102" t="e">
-        <f>VLOOKUP($D62,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D62,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C62" s="102" t="e">
@@ -4994,43 +5000,43 @@
         <v>#N/A</v>
       </c>
       <c r="D62" s="102" t="s">
-        <v>118</v>
-      </c>
-      <c r="E62" s="112" t="e">
+        <v>53</v>
+      </c>
+      <c r="E62" s="111" t="e">
         <f>VLOOKUP($D62,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F62" s="113" t="e">
+      <c r="F62" s="112" t="e">
         <f>VLOOKUP($D62,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G62" s="112" t="str">
+      <c r="G62" s="111" t="str">
         <f>IFERROR(VLOOKUP($C62,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H62" s="113" t="str">
+      <c r="H62" s="112" t="str">
         <f>IFERROR(VLOOKUP($C62,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I62" s="114" t="e">
+      <c r="I62" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J62" s="114" t="e">
+      <c r="J62" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K62" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="63" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="56">
         <v>54</v>
       </c>
       <c r="B63" s="102" t="e">
-        <f>VLOOKUP($D63,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D63,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C63" s="102" t="e">
@@ -5038,43 +5044,43 @@
         <v>#N/A</v>
       </c>
       <c r="D63" s="102" t="s">
-        <v>119</v>
-      </c>
-      <c r="E63" s="112" t="e">
+        <v>117</v>
+      </c>
+      <c r="E63" s="111" t="e">
         <f>VLOOKUP($D63,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F63" s="113" t="e">
+      <c r="F63" s="112" t="e">
         <f>VLOOKUP($D63,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G63" s="112" t="str">
+      <c r="G63" s="111" t="str">
         <f>IFERROR(VLOOKUP($C63,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H63" s="113" t="str">
+      <c r="H63" s="112" t="str">
         <f>IFERROR(VLOOKUP($C63,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I63" s="114" t="e">
+      <c r="I63" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J63" s="114" t="e">
+      <c r="J63" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K63" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="64" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" ht="37.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="56">
         <v>55</v>
       </c>
       <c r="B64" s="102" t="e">
-        <f>VLOOKUP($D64,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D64,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C64" s="102" t="e">
@@ -5082,86 +5088,87 @@
         <v>#N/A</v>
       </c>
       <c r="D64" s="102" t="s">
-        <v>120</v>
-      </c>
-      <c r="E64" s="112" t="e">
+        <v>118</v>
+      </c>
+      <c r="E64" s="111" t="e">
         <f>VLOOKUP($D64,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F64" s="113" t="e">
+      <c r="F64" s="112" t="e">
         <f>VLOOKUP($D64,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G64" s="112" t="str">
+      <c r="G64" s="111" t="str">
         <f>IFERROR(VLOOKUP($C64,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H64" s="113" t="str">
+      <c r="H64" s="112" t="str">
         <f>IFERROR(VLOOKUP($C64,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I64" s="114" t="e">
+      <c r="I64" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J64" s="114" t="e">
+      <c r="J64" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K64" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="65" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" ht="46.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="56">
         <v>56</v>
       </c>
       <c r="B65" s="102" t="e">
-        <f>VLOOKUP($D65,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C65" s="102" t="s">
-        <v>129</v>
+        <f>VLOOKUP($D65,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C65" s="102" t="e">
+        <f>VLOOKUP($B65,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
       </c>
       <c r="D65" s="102" t="s">
-        <v>121</v>
-      </c>
-      <c r="E65" s="112" t="e">
+        <v>119</v>
+      </c>
+      <c r="E65" s="111" t="e">
         <f>VLOOKUP($D65,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F65" s="113" t="e">
+      <c r="F65" s="112" t="e">
         <f>VLOOKUP($D65,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G65" s="112" t="str">
+      <c r="G65" s="111" t="str">
         <f>IFERROR(VLOOKUP($C65,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H65" s="113" t="str">
+      <c r="H65" s="112" t="str">
         <f>IFERROR(VLOOKUP($C65,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I65" s="114" t="e">
+      <c r="I65" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J65" s="114" t="e">
+      <c r="J65" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K65" s="61" t="str">
-        <f t="shared" si="6"/>
-        <v>есть</v>
-      </c>
-    </row>
-    <row r="66" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K65" s="61" t="e">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="56">
         <v>57</v>
       </c>
       <c r="B66" s="102" t="e">
-        <f>VLOOKUP($D66,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D66,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C66" s="102" t="e">
@@ -5169,79 +5176,78 @@
         <v>#N/A</v>
       </c>
       <c r="D66" s="102" t="s">
-        <v>122</v>
-      </c>
-      <c r="E66" s="112" t="e">
+        <v>120</v>
+      </c>
+      <c r="E66" s="111" t="e">
         <f>VLOOKUP($D66,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F66" s="113" t="e">
+      <c r="F66" s="112" t="e">
         <f>VLOOKUP($D66,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G66" s="112" t="str">
+      <c r="G66" s="111" t="str">
         <f>IFERROR(VLOOKUP($C66,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H66" s="113" t="str">
+      <c r="H66" s="112" t="str">
         <f>IFERROR(VLOOKUP($C66,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I66" s="114" t="e">
+      <c r="I66" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J66" s="114" t="e">
+      <c r="J66" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K66" s="61" t="e">
-        <f t="shared" si="6"/>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="67" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="56">
         <v>58</v>
       </c>
       <c r="B67" s="102" t="e">
-        <f>VLOOKUP($D67,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C67" s="102" t="e">
-        <f>VLOOKUP($B67,nsi!$F:$G,2,0)</f>
-        <v>#N/A</v>
+        <f>VLOOKUP($D67,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C67" s="102" t="s">
+        <v>129</v>
       </c>
       <c r="D67" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="E67" s="112" t="e">
+        <v>121</v>
+      </c>
+      <c r="E67" s="111" t="e">
         <f>VLOOKUP($D67,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F67" s="113" t="e">
+      <c r="F67" s="112" t="e">
         <f>VLOOKUP($D67,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G67" s="112" t="str">
+      <c r="G67" s="111" t="str">
         <f>IFERROR(VLOOKUP($C67,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H67" s="113" t="str">
+      <c r="H67" s="112" t="str">
         <f>IFERROR(VLOOKUP($C67,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I67" s="114" t="e">
+      <c r="I67" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J67" s="114" t="e">
+      <c r="J67" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K67" s="61" t="e">
-        <f t="shared" ref="K67" si="7">IF(C67=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
+      <c r="K67" s="61" t="str">
+        <f t="shared" si="7"/>
+        <v>есть</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -5249,7 +5255,7 @@
         <v>59</v>
       </c>
       <c r="B68" s="102" t="e">
-        <f>VLOOKUP($D68,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D68,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C68" s="102" t="e">
@@ -5257,34 +5263,34 @@
         <v>#N/A</v>
       </c>
       <c r="D68" s="102" t="s">
-        <v>123</v>
-      </c>
-      <c r="E68" s="112" t="e">
+        <v>122</v>
+      </c>
+      <c r="E68" s="111" t="e">
         <f>VLOOKUP($D68,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F68" s="113" t="e">
+      <c r="F68" s="112" t="e">
         <f>VLOOKUP($D68,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G68" s="112" t="str">
+      <c r="G68" s="111" t="str">
         <f>IFERROR(VLOOKUP($C68,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H68" s="113" t="str">
+      <c r="H68" s="112" t="str">
         <f>IFERROR(VLOOKUP($C68,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I68" s="114" t="e">
+      <c r="I68" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J68" s="114" t="e">
+      <c r="J68" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K68" s="61" t="e">
-        <f t="shared" ref="K68" si="8">IF(C68=0, "нет в РЕГИЗе","есть")</f>
+        <f t="shared" si="7"/>
         <v>#N/A</v>
       </c>
     </row>
@@ -5293,7 +5299,7 @@
         <v>60</v>
       </c>
       <c r="B69" s="102" t="e">
-        <f>VLOOKUP($D69,parus!$A$3:$AA$100,2,0)</f>
+        <f>VLOOKUP($D69,parus!$A:$AA,2,0)</f>
         <v>#N/A</v>
       </c>
       <c r="C69" s="102" t="e">
@@ -5301,77 +5307,165 @@
         <v>#N/A</v>
       </c>
       <c r="D69" s="102" t="s">
-        <v>126</v>
-      </c>
-      <c r="E69" s="112" t="e">
+        <v>54</v>
+      </c>
+      <c r="E69" s="111" t="e">
         <f>VLOOKUP($D69,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F69" s="113" t="e">
+      <c r="F69" s="112" t="e">
         <f>VLOOKUP($D69,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G69" s="112" t="str">
+      <c r="G69" s="111" t="str">
         <f>IFERROR(VLOOKUP($C69,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H69" s="113" t="str">
+      <c r="H69" s="112" t="str">
         <f>IFERROR(VLOOKUP($C69,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I69" s="114" t="e">
+      <c r="I69" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J69" s="114" t="e">
+      <c r="J69" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
       <c r="K69" s="61" t="e">
-        <f t="shared" ref="K69" si="9">IF(C69=0, "нет в РЕГИЗе","есть")</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="64">
+        <f t="shared" ref="K69" si="8">IF(C69=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="56">
         <v>61</v>
       </c>
-      <c r="B70" s="103" t="e">
-        <f>VLOOKUP($D70,parus!$A$3:$AA$100,2,0)</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C70" s="102" t="s">
-        <v>128</v>
-      </c>
-      <c r="D70" s="103" t="s">
-        <v>127</v>
-      </c>
-      <c r="E70" s="118" t="e">
+      <c r="B70" s="102" t="e">
+        <f>VLOOKUP($D70,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C70" s="102" t="e">
+        <f>VLOOKUP($B70,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D70" s="102" t="s">
+        <v>123</v>
+      </c>
+      <c r="E70" s="111" t="e">
         <f>VLOOKUP($D70,parus!$A$3:$AA$100,21,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="F70" s="119" t="e">
+      <c r="F70" s="112" t="e">
         <f>VLOOKUP($D70,parus!$A$3:$AA$100,23,0)</f>
         <v>#N/A</v>
       </c>
-      <c r="G70" s="118" t="str">
+      <c r="G70" s="111" t="str">
         <f>IFERROR(VLOOKUP($C70,regiz!$B:$J,4,0),"")</f>
         <v/>
       </c>
-      <c r="H70" s="119" t="str">
+      <c r="H70" s="112" t="str">
         <f>IFERROR(VLOOKUP($C70,regiz!$B:$J,5,0),"")</f>
         <v/>
       </c>
-      <c r="I70" s="120" t="e">
+      <c r="I70" s="113" t="e">
         <f t="shared" si="1"/>
         <v>#N/A</v>
       </c>
-      <c r="J70" s="120" t="e">
+      <c r="J70" s="113" t="e">
         <f t="shared" si="2"/>
         <v>#N/A</v>
       </c>
-      <c r="K70" s="52" t="str">
-        <f t="shared" ref="K70" si="10">IF(C70=0, "нет в РЕГИЗе","есть")</f>
+      <c r="K70" s="61" t="e">
+        <f t="shared" ref="K70" si="9">IF(C70=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" ht="50.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="56">
+        <v>62</v>
+      </c>
+      <c r="B71" s="102" t="e">
+        <f>VLOOKUP($D71,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C71" s="102" t="e">
+        <f>VLOOKUP($B71,nsi!$F:$G,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="D71" s="102" t="s">
+        <v>126</v>
+      </c>
+      <c r="E71" s="111" t="e">
+        <f>VLOOKUP($D71,parus!$A$3:$AA$100,21,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F71" s="112" t="e">
+        <f>VLOOKUP($D71,parus!$A$3:$AA$100,23,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G71" s="111" t="str">
+        <f>IFERROR(VLOOKUP($C71,regiz!$B:$J,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H71" s="112" t="str">
+        <f>IFERROR(VLOOKUP($C71,regiz!$B:$J,5,0),"")</f>
+        <v/>
+      </c>
+      <c r="I71" s="113" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J71" s="113" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K71" s="61" t="e">
+        <f t="shared" ref="K71" si="10">IF(C71=0, "нет в РЕГИЗе","есть")</f>
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" ht="54" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="64">
+        <v>63</v>
+      </c>
+      <c r="B72" s="103" t="e">
+        <f>VLOOKUP($D72,parus!$A:$AA,2,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C72" s="103" t="s">
+        <v>128</v>
+      </c>
+      <c r="D72" s="103" t="s">
+        <v>127</v>
+      </c>
+      <c r="E72" s="117" t="e">
+        <f>VLOOKUP($D72,parus!$A$3:$AA$100,21,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="F72" s="118" t="e">
+        <f>VLOOKUP($D72,parus!$A$3:$AA$100,23,0)</f>
+        <v>#N/A</v>
+      </c>
+      <c r="G72" s="117" t="str">
+        <f>IFERROR(VLOOKUP($C72,regiz!$B:$J,4,0),"")</f>
+        <v/>
+      </c>
+      <c r="H72" s="118" t="str">
+        <f>IFERROR(VLOOKUP($C72,regiz!$B:$J,5,0),"")</f>
+        <v/>
+      </c>
+      <c r="I72" s="119" t="e">
+        <f t="shared" si="1"/>
+        <v>#N/A</v>
+      </c>
+      <c r="J72" s="119" t="e">
+        <f t="shared" si="2"/>
+        <v>#N/A</v>
+      </c>
+      <c r="K72" s="52" t="str">
+        <f>IF(C72=0, "нет в РЕГИЗе","есть")</f>
         <v>есть</v>
       </c>
     </row>
